--- a/Shablon/33622A.xlsx
+++ b/Shablon/33622A.xlsx
@@ -1074,6 +1074,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,84 +1116,72 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A79" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,77 +1504,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="str">
+      <c r="A7" s="79" t="str">
         <f>"Протокол поверки № 10/"&amp;C102&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1587,11 +1587,11 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="31" t="s">
         <v>46</v>
       </c>
@@ -1603,11 +1603,11 @@
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="46" t="s">
         <v>25</v>
       </c>
@@ -1617,11 +1617,11 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="35">
         <v>2023</v>
       </c>
@@ -1631,11 +1631,11 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="35" t="s">
         <v>47</v>
       </c>
@@ -1645,11 +1645,11 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="46" t="s">
         <v>40</v>
       </c>
@@ -1659,11 +1659,11 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="36" t="s">
         <v>48</v>
       </c>
@@ -1673,11 +1673,11 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="31" t="s">
         <v>39</v>
       </c>
@@ -1701,99 +1701,99 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="87"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="87" t="s">
+      <c r="E19" s="72"/>
+      <c r="F19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="87"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="87" t="s">
+      <c r="E20" s="72"/>
+      <c r="F20" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="87"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="87" t="s">
+      <c r="E21" s="72"/>
+      <c r="F21" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="87"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="72">
         <v>220.1</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="87" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="87"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84">
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="72">
         <v>50</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="87" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,48 +1866,48 @@
       <c r="A31" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="52"/>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="54"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="44" t="s">
         <v>128</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="80">
         <v>1</v>
       </c>
       <c r="C34" s="43">
@@ -1919,14 +1919,14 @@
       <c r="E34" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="60"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="43">
         <v>10000000</v>
       </c>
@@ -1936,14 +1936,14 @@
       <c r="E35" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="60"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="43">
         <v>30000000</v>
       </c>
@@ -1953,14 +1953,14 @@
       <c r="E36" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="62"/>
+      <c r="G36" s="66"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="43">
         <v>60000000</v>
       </c>
@@ -1970,14 +1970,14 @@
       <c r="E37" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="77"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="43">
         <v>80000000</v>
       </c>
@@ -1987,14 +1987,14 @@
       <c r="E38" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="60"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="43">
         <v>120000000</v>
       </c>
@@ -2004,10 +2004,10 @@
       <c r="E39" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="60"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2025,44 +2025,44 @@
       <c r="A42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53" t="s">
+      <c r="E42" s="58"/>
+      <c r="F42" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="54"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="44" t="s">
         <v>128</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2081,10 +2081,10 @@
       <c r="E45" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="60"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,10 +2101,10 @@
       <c r="E46" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="60"/>
+      <c r="G46" s="64"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2121,10 +2121,10 @@
       <c r="E47" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="62"/>
+      <c r="G47" s="66"/>
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2141,10 +2141,10 @@
       <c r="E48" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="77"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,93 +2211,93 @@
       <c r="A55" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="53" t="s">
+      <c r="C55" s="58"/>
+      <c r="D55" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="53" t="s">
+      <c r="E55" s="58"/>
+      <c r="F55" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="54"/>
+      <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="52"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="56"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="60"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="44" t="s">
         <v>128</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="58"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="63">
+      <c r="B58" s="87">
         <v>0</v>
       </c>
-      <c r="C58" s="64"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="48" t="s">
         <v>138</v>
       </c>
       <c r="E58" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="60"/>
+      <c r="G58" s="64"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="52"/>
-      <c r="B59" s="63">
+      <c r="B59" s="87">
         <v>0.5</v>
       </c>
-      <c r="C59" s="64"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="48" t="s">
         <v>140</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="60"/>
+      <c r="G59" s="64"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="52"/>
-      <c r="B60" s="63">
+      <c r="B60" s="87">
         <v>10</v>
       </c>
-      <c r="C60" s="64"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="48" t="s">
         <v>142</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G60" s="62"/>
+      <c r="G60" s="66"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
@@ -2363,7 +2363,7 @@
       <c r="G65" s="52"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="86" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="38">
@@ -2386,7 +2386,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="41">
         <v>1</v>
       </c>
@@ -2409,7 +2409,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="41">
         <v>5</v>
       </c>
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="41">
         <v>10</v>
       </c>
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="41">
         <v>20</v>
       </c>
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="41">
         <v>30</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="41">
         <v>40</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="41">
         <v>50</v>
       </c>
@@ -2547,7 +2547,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="41">
         <v>60</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="41">
         <v>70</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="41">
         <v>80</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="41">
         <v>90</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="41">
         <v>100</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="41">
         <v>110</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
+      <c r="A80" s="86"/>
       <c r="B80" s="41">
         <v>120</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="65" t="s">
+      <c r="A81" s="86" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="38">
@@ -2731,7 +2731,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="41">
         <v>1</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="41">
         <v>5</v>
       </c>
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="41">
         <v>10</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="41">
         <v>20</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="41">
         <v>30</v>
       </c>
@@ -2846,7 +2846,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="41">
         <v>40</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="41">
         <v>50</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
+      <c r="A89" s="86"/>
       <c r="B89" s="41">
         <v>60</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
+      <c r="A90" s="86"/>
       <c r="B90" s="41">
         <v>70</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="41">
         <v>80</v>
       </c>
@@ -2961,7 +2961,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="41">
         <v>90</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="41">
         <v>100</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="41">
         <v>110</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="41">
         <v>120</v>
       </c>
@@ -3089,10 +3089,10 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="78" t="s">
+      <c r="A100" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="78"/>
+      <c r="B100" s="75"/>
       <c r="C100" s="49" t="s">
         <v>45</v>
       </c>
@@ -3101,52 +3101,79 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="78" t="s">
+      <c r="A101" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="78"/>
+      <c r="B101" s="75"/>
       <c r="C101" s="26"/>
       <c r="D101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="81" t="s">
+      <c r="E101" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F101" s="82"/>
+      <c r="F101" s="78"/>
       <c r="G101" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="78"/>
-      <c r="C102" s="80" t="s">
+      <c r="B102" s="75"/>
+      <c r="C102" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="80"/>
+      <c r="D102" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:G33"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F42:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="F55:G57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C57"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A80"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="D18:E18"/>
@@ -3163,50 +3190,23 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A80"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="F55:G57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B55:C57"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:G33"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F42:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="D31:E32"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.61458333333333337" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
